--- a/biology/Médecine/Tronc_lombo-sacré/Tronc_lombo-sacré.xlsx
+++ b/biology/Médecine/Tronc_lombo-sacré/Tronc_lombo-sacré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tronc_lombo-sacr%C3%A9</t>
+          <t>Tronc_lombo-sacré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Le tronc lombo-sacré est un tronc nerveux du plexus sacral qui le relie au plexus lombal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tronc_lombo-sacr%C3%A9</t>
+          <t>Tronc_lombo-sacré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tronc lombo-sacré nait du rameau antérieur du cinquième nerf lombaire complété par une anastomose en provenance du rameau antérieur du quatrième nerf lombaire.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tronc_lombo-sacr%C3%A9</t>
+          <t>Tronc_lombo-sacré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tronc lombo-sacré débute sur le bord médial du muscle grand psoas.
 Il descend dans la cavité pelvienne devant l'aile de l'os sacrum et l'articulation sacro-iliaque en direction de la grande incisure ischiatique. À ce niveau, il s'unit au rameau antérieur du premier nerf sacré en avant du muscle piriforme.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tronc_lombo-sacr%C3%A9</t>
+          <t>Tronc_lombo-sacré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tronc lombo-sacré peut être comprimé par la tête fœtale au cours du deuxième stade du travail pouvant entrainer une faiblesse musculaire réversible dans les jambes.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tronc_lombo-sacr%C3%A9</t>
+          <t>Tronc_lombo-sacré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
